--- a/부동산공시_20240626_양영주.xlsx
+++ b/부동산공시_20240626_양영주.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA06_부동산공시가격_양영주\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BB9760-0738-4421-8646-9DA682315718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CEA45D-A03E-421E-B68E-AE3B62A0EF13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="0" activeTab="1" xr2:uid="{57C4D437-1CB2-468E-BEE9-DB56AB4DF829}"/>
   </x:bookViews>
@@ -1891,7 +1891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{FE9FA5D4-1F93-4EB3-9DCF-4EC9F47DF7B2}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{2F17C3A8-318B-4DFA-909A-72DE3B379815}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
